--- a/designdoc/0_스케쥴.xlsx
+++ b/designdoc/0_스케쥴.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\HKB_N_Healing\designdoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522D3943-4465-4B1C-B986-E8B0BE70C570}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49E4257-F887-4778-BC9F-6EB29D1C1ED9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="516" windowWidth="17280" windowHeight="10980" xr2:uid="{CA758130-9F3E-4A2E-975D-3F179B669059}"/>
+    <workbookView xWindow="1008" yWindow="420" windowWidth="17280" windowHeight="10980" xr2:uid="{CA758130-9F3E-4A2E-975D-3F179B669059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>본격작업시작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>~190825</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>요구분석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -77,6 +73,38 @@
   </si>
   <si>
     <t>설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~190824</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~0820</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영수증분석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~0821</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB객체정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB상세정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0821</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-계정과목(카테고리정리)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -134,11 +162,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,78 +487,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7439E65D-CB13-428E-9D58-A7EBFDF884D9}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>190818</v>
       </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6">
+        <v>824</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
